--- a/SeleniumAutomationFramework/TestAutomationFramework/src/test/resources/testdata/testdata.xlsx
+++ b/SeleniumAutomationFramework/TestAutomationFramework/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8400"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>eee.hmritm2022@gmail.com</t>
+    <t>registeredID1</t>
   </si>
   <si>
-    <t>Tanya@151798</t>
+    <t>Password1</t>
   </si>
   <si>
-    <t>eee.hmritm2020@gmail.com</t>
+    <t>Password2</t>
   </si>
 </sst>
 </file>
@@ -980,10 +980,14 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="44.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="50.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1003,18 +1007,16 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="eee.hmritm2022@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Tanya@151798"/>
-    <hyperlink ref="A3" r:id="rId3" display="eee.hmritm2020@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="Tanya@151798" tooltip="mailto:Tanya@151798"/>
+    <hyperlink ref="A2" r:id="rId1" display="registeredID1" tooltip="mailto:test123@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Password1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/SeleniumAutomationFramework/TestAutomationFramework/src/test/resources/testdata/testdata.xlsx
+++ b/SeleniumAutomationFramework/TestAutomationFramework/src/test/resources/testdata/testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -41,7 +41,16 @@
     <t>Password1</t>
   </si>
   <si>
+    <t>registeredID2</t>
+  </si>
+  <si>
     <t>Password2</t>
+  </si>
+  <si>
+    <t>registeredID3</t>
+  </si>
+  <si>
+    <t>Password3</t>
   </si>
 </sst>
 </file>
@@ -977,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="44.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="50.8888888888889" customWidth="1"/>
@@ -1007,10 +1016,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
